--- a/biology/Médecine/1745_en_santé_et_médecine/1745_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1745_en_santé_et_médecine/1745_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1745_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1745_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1745 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1745_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1745_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>France
-Paul-Jacques Malouin (1701-1778) est nommé « par le gouvernement, le parlement et la faculté » pour porter des secours contre l'épizootie qui règne dans les environs de Paris[1].
-Royaume-Uni
-Acte final de séparation des barbiers et des chirurgiens de Londres, qui met un terme à deux siècles d’une histoire corporative commune[2],[3].</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Paul-Jacques Malouin (1701-1778) est nommé « par le gouvernement, le parlement et la faculté » pour porter des secours contre l'épizootie qui règne dans les environs de Paris.</t>
         </is>
       </c>
     </row>
@@ -526,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1745_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1745_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,13 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Publications</t>
+          <t>Évènements</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Jacques Daran (1701-1784) publie la première édition de ses Observations chirurgicales sur les maladies de l’urètre, traitées suivant une nouvelle méthode[Note 1]. Il traite les rétrécissements de l'urètre par la dilatation au moyen de bougies.
-Julien Offray de La Mettrie (1709-1751) publie Aphorismes de Monsieur Herman Boerhaave sur la connaissance et la cure des maladies.</t>
+          <t>Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Acte final de séparation des barbiers et des chirurgiens de Londres, qui met un terme à deux siècles d’une histoire corporative commune,.</t>
         </is>
       </c>
     </row>
@@ -557,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1745_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1745_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,46 +592,117 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jacques Daran (1701-1784) publie la première édition de ses Observations chirurgicales sur les maladies de l’urètre, traitées suivant une nouvelle méthode[Note 1]. Il traite les rétrécissements de l'urètre par la dilatation au moyen de bougies.
+Julien Offray de La Mettrie (1709-1751) publie Aphorismes de Monsieur Herman Boerhaave sur la connaissance et la cure des maladies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1745_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1745_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>9 mars : Antoine Quinquet (mort en 1803), pharmacien français.
 19 mars : Johann Peter Frank (mort en 1821), médecin hygiéniste allemand, un des fondateurs de la santé publique et de la médecine sociale.
 20 avril : Philippe Pinel (mort en 1826), médecin aliéniste français.
 29 septembre : Jean-Baptiste Pussin (mort en 1811), surveillant de l'asile de Bicêtre, puis de la Salpêtrière, un des précurseurs de la fonction d'infirmier psychiatrique, assistant de Philippe Pinel (voir ci-dessus).
-14 octobre : Jean-Nicolas Laloy  (mort en 1804), médecin et homme politique français[4].
-Sans date
-Jean-Baptiste Dumangin (mort en 1826), médecin français qui a pris part à l'autopsie de Louis XVII.</t>
+14 octobre : Jean-Nicolas Laloy  (mort en 1804), médecin et homme politique français.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1745_en_sant%C3%A9_et_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1745_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/1745_en_sant%C3%A9_et_m%C3%A9decine</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Naissances</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sans date</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste Dumangin (mort en 1826), médecin français qui a pris part à l'autopsie de Louis XVII.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1745_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1745_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>30 mai : Johann Adam Kulmus (né en 1689), anatomiste allemand.
 juillet : Diego Mateo Zapata, médecin espagnol.</t>
